--- a/biology/Médecine/Cil_(anatomie_humaine)/Cil_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Cil_(anatomie_humaine)/Cil_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cils sont des poils qui poussent sur le bord libre des paupières des êtres humains et qui limitent l'accès de la transpiration et des corps étrangers comme les poussières à l'œil. Ces phanères de structure filiforme renforcent l'étanchéité des paupières lors de leur occlusion.
 </t>
@@ -511,11 +523,13 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vie d'un cil forme un cycle qui se décompose en trois temps : phase anagène (pousse du cil, qui dure de 4 à 10 semaines), phase catagène (période de dégradation du cil), et phase télogène (période de repos du follicule pileux, au cours de laquelle le cil tombe). Le cycle complet prends 4 à 11 mois[1]. 
-Les cils supérieurs sont plus nombreux que les cils inférieurs : de 90 à 160 cils contre 75 à 80 cils[1]. Ils sont aussi plus longs : de 8 à 12 mm, contre 6-8 mm pour les cils inférieurs.
-Les cils poussent en permanence, y compris à la suite d'une chimiothérapie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vie d'un cil forme un cycle qui se décompose en trois temps : phase anagène (pousse du cil, qui dure de 4 à 10 semaines), phase catagène (période de dégradation du cil), et phase télogène (période de repos du follicule pileux, au cours de laquelle le cil tombe). Le cycle complet prends 4 à 11 mois. 
+Les cils supérieurs sont plus nombreux que les cils inférieurs : de 90 à 160 cils contre 75 à 80 cils. Ils sont aussi plus longs : de 8 à 12 mm, contre 6-8 mm pour les cils inférieurs.
+Les cils poussent en permanence, y compris à la suite d'une chimiothérapie.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Symbolisme
-Dans la poésie arabe et persane, les cils sont considérés comme les armes de l'amour, lui-même instillé dans les yeux.  On les compare à des lances, à des épées, à des flèches : tes cils sont des flèches dans l'arc formé par tes sourcils, et qui toutes atteignent leur but.
+          <t>Symbolisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la poésie arabe et persane, les cils sont considérés comme les armes de l'amour, lui-même instillé dans les yeux.  On les compare à des lances, à des épées, à des flèches : tes cils sont des flèches dans l'arc formé par tes sourcils, et qui toutes atteignent leur but.
 Ils sont non seulement les armes, mais l'armée de l'amour : tes cils sont deux rangées de cavaliers rangés pacifiquement en face des uns des autres ; mais le sang coule chaque fois qu'ils en viennent aux mains, c'est-à-dire lorsqu'ils se rapprochent pour lancer une œillade. 
 </t>
         </is>
